--- a/WM.xlsx
+++ b/WM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058747F-DBE9-43B2-8722-A13ACA3DED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B557DD-84E9-4755-BF15-6CFE8B6AFA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{7FC89B50-7A2A-42F7-98A4-0AF980BF671F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{7FC89B50-7A2A-42F7-98A4-0AF980BF671F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Waste Management</t>
   </si>
@@ -134,6 +134,27 @@
   <si>
     <t>EPS</t>
   </si>
+  <si>
+    <t>East Tier</t>
+  </si>
+  <si>
+    <t>West Tier</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Collection &amp; Disposal</t>
+  </si>
+  <si>
+    <t>Recycling Processing and Sales</t>
+  </si>
+  <si>
+    <t>WM Renewable Energe</t>
+  </si>
+  <si>
+    <t>WM Healthcare Solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -144,13 +165,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -200,20 +227,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C48606B-DCB1-43F2-9FA1-EBFA5F6C6EF1}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -574,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>236.88</v>
+        <v>219.04</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -582,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>402.40797600000002</v>
+        <v>402.83031499999998</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -594,7 +625,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>95322.401354879999</v>
+        <v>88235.952197599996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -602,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>216</v>
+        <v>440</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
+      <c r="K5" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -613,11 +644,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f>22883+954</f>
-        <v>23837</v>
+        <f>23056+964</f>
+        <v>24020</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>8</v>
+      <c r="K6" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -626,7 +657,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>118943.40135488</v>
+        <v>111815.9521976</v>
       </c>
     </row>
   </sheetData>
@@ -636,13 +667,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE360F3-EA11-46AC-B8AD-09D0767EC4B8}">
-  <dimension ref="A1:BT467"/>
+  <dimension ref="A1:BT474"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,12 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>2178</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2292</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -756,33 +794,33 @@
       <c r="BT3" s="3"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
       </c>
-      <c r="C4" s="6">
-        <v>5159</v>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>2076</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>6018</v>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>2251</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -835,19 +873,19 @@
       <c r="BT4" s="3"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>18</v>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
       </c>
-      <c r="C5" s="3">
-        <v>3140</v>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>668</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>3647</v>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>738</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -914,30 +952,21 @@
       <c r="BT5" s="3"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:F6" si="0">+C4-C5</f>
-        <v>2019</v>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f>+SUM(D3:D5)</f>
+        <v>4922</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f>+SUM(H3:H5)</f>
+        <v>5281</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <f>+G4-G5</f>
-        <v>2371</v>
-      </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1004,19 +1033,19 @@
       <c r="BT6" s="3"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
       </c>
-      <c r="C7" s="3">
-        <v>491</v>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>405</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>687</v>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>381</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1083,19 +1112,19 @@
       <c r="BT7" s="3"/>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="C8" s="3">
-        <v>514</v>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>69</v>
       </c>
-      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>656</v>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>115</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1162,21 +1191,19 @@
       <c r="BT8" s="3"/>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
       </c>
-      <c r="C9" s="3">
-        <f>0-2</f>
-        <v>-2</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>6</v>
       </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <f>13+2</f>
-        <v>15</v>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>646</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1243,30 +1270,19 @@
       <c r="BT9" s="3"/>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
       </c>
-      <c r="C10" s="3">
-        <f>+C6-SUM(C7:C9)</f>
-        <v>1016</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f>+D6-SUM(D7:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3">
-        <f>+E6-SUM(E7:E9)</f>
-        <v>0</v>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>7</v>
       </c>
-      <c r="F10" s="3">
-        <f>+F6-SUM(F7:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f>+G6-SUM(G7:G9)</f>
-        <v>1013</v>
-      </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1333,33 +1349,37 @@
       <c r="BT10" s="3"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="C11" s="3">
-        <v>130</v>
+      <c r="C11" s="6">
+        <v>5159</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>232</v>
+      <c r="D11" s="6">
+        <v>5402</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>6018</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6430</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1413,20 +1433,22 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
-        <f>-19+2</f>
-        <v>-17</v>
+        <v>3140</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>3291</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <f>5+2</f>
-        <v>7</v>
+        <v>3647</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>3839</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1494,31 +1516,31 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:F13" si="1">+C10-C11+C12</f>
-        <v>869</v>
+        <f t="shared" ref="C13:F13" si="0">+C11-C12</f>
+        <v>2019</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2111</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f>+G10-G11+G12</f>
-        <v>788</v>
+        <f>+G11-G12</f>
+        <v>2371</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ref="H13" si="2">+H10-H11+H12</f>
-        <v>0</v>
+        <f>+H11-H12</f>
+        <v>2591</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1587,18 +1609,22 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
-        <v>162</v>
+        <v>491</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>501</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>151</v>
+        <v>687</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>696</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1666,20 +1692,22 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
-        <f>+C13-C14</f>
-        <v>707</v>
+        <v>514</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>543</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <f>+G13-G14</f>
-        <v>637</v>
+        <v>656</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>708</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1747,18 +1775,25 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>-1</v>
+        <f>0-2</f>
+        <v>-2</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>58</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <v>0</v>
+        <f>13+2</f>
+        <v>15</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <f>12+24</f>
+        <v>36</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1826,40 +1861,34 @@
     </row>
     <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:F17" si="3">+C15-C16</f>
-        <v>708</v>
+        <f>+C13-SUM(C14:C16)</f>
+        <v>1016</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>+D13-SUM(D14:D16)</f>
+        <v>1009</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="3"/>
+        <f>+E13-SUM(E14:E16)</f>
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="3"/>
+        <f>+F13-SUM(F14:F16)</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f>+G15-G16</f>
-        <v>637</v>
+        <f>+G13-SUM(G14:G16)</f>
+        <v>1013</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:J17" si="4">+H15-H16</f>
-        <v>0</v>
+        <f>+H13-SUM(H14:H16)</f>
+        <v>1151</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1924,12 +1953,23 @@
       <c r="BT17" s="3"/>
     </row>
     <row r="18" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
+        <v>130</v>
+      </c>
+      <c r="D18" s="3">
+        <v>136</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>232</v>
+      </c>
+      <c r="H18" s="3">
+        <v>232</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1997,31 +2037,25 @@
     </row>
     <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
-      <c r="C19" s="7">
-        <f>+C17/C20</f>
-        <v>1.7642661350610516</v>
+      <c r="C19" s="3">
+        <f>-19+2</f>
+        <v>-17</v>
       </c>
-      <c r="D19" s="7" t="e">
-        <f t="shared" ref="D19:H19" si="5">+D17/D20</f>
-        <v>#DIV/0!</v>
+      <c r="D19" s="3">
+        <f>22-1</f>
+        <v>21</v>
       </c>
-      <c r="E19" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <f>5+2</f>
+        <v>7</v>
       </c>
-      <c r="F19" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="5"/>
-        <v>1.5830019880715707</v>
-      </c>
-      <c r="H19" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="H19" s="3">
+        <f>2+7</f>
+        <v>9</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2090,19 +2124,33 @@
     </row>
     <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
-      <c r="C20" s="8">
-        <v>401.3</v>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:F20" si="1">+C17-C18+C19</f>
+        <v>869</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>402.4</v>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>894</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>+G17-G18+G19</f>
+        <v>788</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ref="H20" si="2">+H17-H18+H19</f>
+        <v>928</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2168,12 +2216,23 @@
       <c r="BT20" s="3"/>
     </row>
     <row r="21" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3">
+        <v>214</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3">
+        <v>151</v>
+      </c>
+      <c r="H21" s="3">
+        <v>201</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2240,12 +2299,33 @@
       <c r="BT21" s="3"/>
     </row>
     <row r="22" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
+        <f>+C20-C21</f>
+        <v>707</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:F22" si="3">+D20-D21</f>
+        <v>680</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f>+G20-G21</f>
+        <v>637</v>
+      </c>
+      <c r="H22" s="3">
+        <f>+H20-H21</f>
+        <v>727</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2312,12 +2392,23 @@
       <c r="BT22" s="3"/>
     </row>
     <row r="23" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2384,14 +2475,41 @@
       <c r="BT23" s="3"/>
     </row>
     <row r="24" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:F24" si="4">+C22-C23</f>
+        <v>708</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f>+G22-G23</f>
+        <v>637</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24:J24" si="5">+H22-H23</f>
+        <v>726</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2528,12 +2646,33 @@
       <c r="BT25" s="3"/>
     </row>
     <row r="26" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7">
+        <f>+C24/C27</f>
+        <v>1.7642661350610516</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ref="D26:H26" si="6">+D24/D27</f>
+        <v>1.6953378209922711</v>
+      </c>
+      <c r="E26" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="6"/>
+        <v>1.5830019880715707</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="6"/>
+        <v>1.8032786885245902</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2600,13 +2739,24 @@
       <c r="BT26" s="3"/>
     </row>
     <row r="27" spans="2:72" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>401.3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>401.1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>402.4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>402.6</v>
+      </c>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -34351,6 +34501,510 @@
       <c r="BS467" s="3"/>
       <c r="BT467" s="3"/>
     </row>
+    <row r="468" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C468" s="3"/>
+      <c r="D468" s="3"/>
+      <c r="E468" s="3"/>
+      <c r="F468" s="3"/>
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+      <c r="I468" s="3"/>
+      <c r="J468" s="3"/>
+      <c r="K468" s="3"/>
+      <c r="L468" s="3"/>
+      <c r="M468" s="3"/>
+      <c r="N468" s="3"/>
+      <c r="O468" s="3"/>
+      <c r="P468" s="3"/>
+      <c r="Q468" s="3"/>
+      <c r="R468" s="3"/>
+      <c r="S468" s="3"/>
+      <c r="T468" s="3"/>
+      <c r="U468" s="3"/>
+      <c r="V468" s="3"/>
+      <c r="W468" s="3"/>
+      <c r="X468" s="3"/>
+      <c r="Y468" s="3"/>
+      <c r="Z468" s="3"/>
+      <c r="AA468" s="3"/>
+      <c r="AB468" s="3"/>
+      <c r="AC468" s="3"/>
+      <c r="AD468" s="3"/>
+      <c r="AE468" s="3"/>
+      <c r="AF468" s="3"/>
+      <c r="AG468" s="3"/>
+      <c r="AH468" s="3"/>
+      <c r="AI468" s="3"/>
+      <c r="AJ468" s="3"/>
+      <c r="AK468" s="3"/>
+      <c r="AL468" s="3"/>
+      <c r="AM468" s="3"/>
+      <c r="AN468" s="3"/>
+      <c r="AO468" s="3"/>
+      <c r="AP468" s="3"/>
+      <c r="AQ468" s="3"/>
+      <c r="AR468" s="3"/>
+      <c r="AS468" s="3"/>
+      <c r="AT468" s="3"/>
+      <c r="AU468" s="3"/>
+      <c r="AV468" s="3"/>
+      <c r="AW468" s="3"/>
+      <c r="AX468" s="3"/>
+      <c r="AY468" s="3"/>
+      <c r="AZ468" s="3"/>
+      <c r="BA468" s="3"/>
+      <c r="BB468" s="3"/>
+      <c r="BC468" s="3"/>
+      <c r="BD468" s="3"/>
+      <c r="BE468" s="3"/>
+      <c r="BF468" s="3"/>
+      <c r="BG468" s="3"/>
+      <c r="BH468" s="3"/>
+      <c r="BI468" s="3"/>
+      <c r="BJ468" s="3"/>
+      <c r="BK468" s="3"/>
+      <c r="BL468" s="3"/>
+      <c r="BM468" s="3"/>
+      <c r="BN468" s="3"/>
+      <c r="BO468" s="3"/>
+      <c r="BP468" s="3"/>
+      <c r="BQ468" s="3"/>
+      <c r="BR468" s="3"/>
+      <c r="BS468" s="3"/>
+      <c r="BT468" s="3"/>
+    </row>
+    <row r="469" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C469" s="3"/>
+      <c r="D469" s="3"/>
+      <c r="E469" s="3"/>
+      <c r="F469" s="3"/>
+      <c r="G469" s="3"/>
+      <c r="H469" s="3"/>
+      <c r="I469" s="3"/>
+      <c r="J469" s="3"/>
+      <c r="K469" s="3"/>
+      <c r="L469" s="3"/>
+      <c r="M469" s="3"/>
+      <c r="N469" s="3"/>
+      <c r="O469" s="3"/>
+      <c r="P469" s="3"/>
+      <c r="Q469" s="3"/>
+      <c r="R469" s="3"/>
+      <c r="S469" s="3"/>
+      <c r="T469" s="3"/>
+      <c r="U469" s="3"/>
+      <c r="V469" s="3"/>
+      <c r="W469" s="3"/>
+      <c r="X469" s="3"/>
+      <c r="Y469" s="3"/>
+      <c r="Z469" s="3"/>
+      <c r="AA469" s="3"/>
+      <c r="AB469" s="3"/>
+      <c r="AC469" s="3"/>
+      <c r="AD469" s="3"/>
+      <c r="AE469" s="3"/>
+      <c r="AF469" s="3"/>
+      <c r="AG469" s="3"/>
+      <c r="AH469" s="3"/>
+      <c r="AI469" s="3"/>
+      <c r="AJ469" s="3"/>
+      <c r="AK469" s="3"/>
+      <c r="AL469" s="3"/>
+      <c r="AM469" s="3"/>
+      <c r="AN469" s="3"/>
+      <c r="AO469" s="3"/>
+      <c r="AP469" s="3"/>
+      <c r="AQ469" s="3"/>
+      <c r="AR469" s="3"/>
+      <c r="AS469" s="3"/>
+      <c r="AT469" s="3"/>
+      <c r="AU469" s="3"/>
+      <c r="AV469" s="3"/>
+      <c r="AW469" s="3"/>
+      <c r="AX469" s="3"/>
+      <c r="AY469" s="3"/>
+      <c r="AZ469" s="3"/>
+      <c r="BA469" s="3"/>
+      <c r="BB469" s="3"/>
+      <c r="BC469" s="3"/>
+      <c r="BD469" s="3"/>
+      <c r="BE469" s="3"/>
+      <c r="BF469" s="3"/>
+      <c r="BG469" s="3"/>
+      <c r="BH469" s="3"/>
+      <c r="BI469" s="3"/>
+      <c r="BJ469" s="3"/>
+      <c r="BK469" s="3"/>
+      <c r="BL469" s="3"/>
+      <c r="BM469" s="3"/>
+      <c r="BN469" s="3"/>
+      <c r="BO469" s="3"/>
+      <c r="BP469" s="3"/>
+      <c r="BQ469" s="3"/>
+      <c r="BR469" s="3"/>
+      <c r="BS469" s="3"/>
+      <c r="BT469" s="3"/>
+    </row>
+    <row r="470" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C470" s="3"/>
+      <c r="D470" s="3"/>
+      <c r="E470" s="3"/>
+      <c r="F470" s="3"/>
+      <c r="G470" s="3"/>
+      <c r="H470" s="3"/>
+      <c r="I470" s="3"/>
+      <c r="J470" s="3"/>
+      <c r="K470" s="3"/>
+      <c r="L470" s="3"/>
+      <c r="M470" s="3"/>
+      <c r="N470" s="3"/>
+      <c r="O470" s="3"/>
+      <c r="P470" s="3"/>
+      <c r="Q470" s="3"/>
+      <c r="R470" s="3"/>
+      <c r="S470" s="3"/>
+      <c r="T470" s="3"/>
+      <c r="U470" s="3"/>
+      <c r="V470" s="3"/>
+      <c r="W470" s="3"/>
+      <c r="X470" s="3"/>
+      <c r="Y470" s="3"/>
+      <c r="Z470" s="3"/>
+      <c r="AA470" s="3"/>
+      <c r="AB470" s="3"/>
+      <c r="AC470" s="3"/>
+      <c r="AD470" s="3"/>
+      <c r="AE470" s="3"/>
+      <c r="AF470" s="3"/>
+      <c r="AG470" s="3"/>
+      <c r="AH470" s="3"/>
+      <c r="AI470" s="3"/>
+      <c r="AJ470" s="3"/>
+      <c r="AK470" s="3"/>
+      <c r="AL470" s="3"/>
+      <c r="AM470" s="3"/>
+      <c r="AN470" s="3"/>
+      <c r="AO470" s="3"/>
+      <c r="AP470" s="3"/>
+      <c r="AQ470" s="3"/>
+      <c r="AR470" s="3"/>
+      <c r="AS470" s="3"/>
+      <c r="AT470" s="3"/>
+      <c r="AU470" s="3"/>
+      <c r="AV470" s="3"/>
+      <c r="AW470" s="3"/>
+      <c r="AX470" s="3"/>
+      <c r="AY470" s="3"/>
+      <c r="AZ470" s="3"/>
+      <c r="BA470" s="3"/>
+      <c r="BB470" s="3"/>
+      <c r="BC470" s="3"/>
+      <c r="BD470" s="3"/>
+      <c r="BE470" s="3"/>
+      <c r="BF470" s="3"/>
+      <c r="BG470" s="3"/>
+      <c r="BH470" s="3"/>
+      <c r="BI470" s="3"/>
+      <c r="BJ470" s="3"/>
+      <c r="BK470" s="3"/>
+      <c r="BL470" s="3"/>
+      <c r="BM470" s="3"/>
+      <c r="BN470" s="3"/>
+      <c r="BO470" s="3"/>
+      <c r="BP470" s="3"/>
+      <c r="BQ470" s="3"/>
+      <c r="BR470" s="3"/>
+      <c r="BS470" s="3"/>
+      <c r="BT470" s="3"/>
+    </row>
+    <row r="471" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
+      <c r="F471" s="3"/>
+      <c r="G471" s="3"/>
+      <c r="H471" s="3"/>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
+      <c r="K471" s="3"/>
+      <c r="L471" s="3"/>
+      <c r="M471" s="3"/>
+      <c r="N471" s="3"/>
+      <c r="O471" s="3"/>
+      <c r="P471" s="3"/>
+      <c r="Q471" s="3"/>
+      <c r="R471" s="3"/>
+      <c r="S471" s="3"/>
+      <c r="T471" s="3"/>
+      <c r="U471" s="3"/>
+      <c r="V471" s="3"/>
+      <c r="W471" s="3"/>
+      <c r="X471" s="3"/>
+      <c r="Y471" s="3"/>
+      <c r="Z471" s="3"/>
+      <c r="AA471" s="3"/>
+      <c r="AB471" s="3"/>
+      <c r="AC471" s="3"/>
+      <c r="AD471" s="3"/>
+      <c r="AE471" s="3"/>
+      <c r="AF471" s="3"/>
+      <c r="AG471" s="3"/>
+      <c r="AH471" s="3"/>
+      <c r="AI471" s="3"/>
+      <c r="AJ471" s="3"/>
+      <c r="AK471" s="3"/>
+      <c r="AL471" s="3"/>
+      <c r="AM471" s="3"/>
+      <c r="AN471" s="3"/>
+      <c r="AO471" s="3"/>
+      <c r="AP471" s="3"/>
+      <c r="AQ471" s="3"/>
+      <c r="AR471" s="3"/>
+      <c r="AS471" s="3"/>
+      <c r="AT471" s="3"/>
+      <c r="AU471" s="3"/>
+      <c r="AV471" s="3"/>
+      <c r="AW471" s="3"/>
+      <c r="AX471" s="3"/>
+      <c r="AY471" s="3"/>
+      <c r="AZ471" s="3"/>
+      <c r="BA471" s="3"/>
+      <c r="BB471" s="3"/>
+      <c r="BC471" s="3"/>
+      <c r="BD471" s="3"/>
+      <c r="BE471" s="3"/>
+      <c r="BF471" s="3"/>
+      <c r="BG471" s="3"/>
+      <c r="BH471" s="3"/>
+      <c r="BI471" s="3"/>
+      <c r="BJ471" s="3"/>
+      <c r="BK471" s="3"/>
+      <c r="BL471" s="3"/>
+      <c r="BM471" s="3"/>
+      <c r="BN471" s="3"/>
+      <c r="BO471" s="3"/>
+      <c r="BP471" s="3"/>
+      <c r="BQ471" s="3"/>
+      <c r="BR471" s="3"/>
+      <c r="BS471" s="3"/>
+      <c r="BT471" s="3"/>
+    </row>
+    <row r="472" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C472" s="3"/>
+      <c r="D472" s="3"/>
+      <c r="E472" s="3"/>
+      <c r="F472" s="3"/>
+      <c r="G472" s="3"/>
+      <c r="H472" s="3"/>
+      <c r="I472" s="3"/>
+      <c r="J472" s="3"/>
+      <c r="K472" s="3"/>
+      <c r="L472" s="3"/>
+      <c r="M472" s="3"/>
+      <c r="N472" s="3"/>
+      <c r="O472" s="3"/>
+      <c r="P472" s="3"/>
+      <c r="Q472" s="3"/>
+      <c r="R472" s="3"/>
+      <c r="S472" s="3"/>
+      <c r="T472" s="3"/>
+      <c r="U472" s="3"/>
+      <c r="V472" s="3"/>
+      <c r="W472" s="3"/>
+      <c r="X472" s="3"/>
+      <c r="Y472" s="3"/>
+      <c r="Z472" s="3"/>
+      <c r="AA472" s="3"/>
+      <c r="AB472" s="3"/>
+      <c r="AC472" s="3"/>
+      <c r="AD472" s="3"/>
+      <c r="AE472" s="3"/>
+      <c r="AF472" s="3"/>
+      <c r="AG472" s="3"/>
+      <c r="AH472" s="3"/>
+      <c r="AI472" s="3"/>
+      <c r="AJ472" s="3"/>
+      <c r="AK472" s="3"/>
+      <c r="AL472" s="3"/>
+      <c r="AM472" s="3"/>
+      <c r="AN472" s="3"/>
+      <c r="AO472" s="3"/>
+      <c r="AP472" s="3"/>
+      <c r="AQ472" s="3"/>
+      <c r="AR472" s="3"/>
+      <c r="AS472" s="3"/>
+      <c r="AT472" s="3"/>
+      <c r="AU472" s="3"/>
+      <c r="AV472" s="3"/>
+      <c r="AW472" s="3"/>
+      <c r="AX472" s="3"/>
+      <c r="AY472" s="3"/>
+      <c r="AZ472" s="3"/>
+      <c r="BA472" s="3"/>
+      <c r="BB472" s="3"/>
+      <c r="BC472" s="3"/>
+      <c r="BD472" s="3"/>
+      <c r="BE472" s="3"/>
+      <c r="BF472" s="3"/>
+      <c r="BG472" s="3"/>
+      <c r="BH472" s="3"/>
+      <c r="BI472" s="3"/>
+      <c r="BJ472" s="3"/>
+      <c r="BK472" s="3"/>
+      <c r="BL472" s="3"/>
+      <c r="BM472" s="3"/>
+      <c r="BN472" s="3"/>
+      <c r="BO472" s="3"/>
+      <c r="BP472" s="3"/>
+      <c r="BQ472" s="3"/>
+      <c r="BR472" s="3"/>
+      <c r="BS472" s="3"/>
+      <c r="BT472" s="3"/>
+    </row>
+    <row r="473" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C473" s="3"/>
+      <c r="D473" s="3"/>
+      <c r="E473" s="3"/>
+      <c r="F473" s="3"/>
+      <c r="G473" s="3"/>
+      <c r="H473" s="3"/>
+      <c r="I473" s="3"/>
+      <c r="J473" s="3"/>
+      <c r="K473" s="3"/>
+      <c r="L473" s="3"/>
+      <c r="M473" s="3"/>
+      <c r="N473" s="3"/>
+      <c r="O473" s="3"/>
+      <c r="P473" s="3"/>
+      <c r="Q473" s="3"/>
+      <c r="R473" s="3"/>
+      <c r="S473" s="3"/>
+      <c r="T473" s="3"/>
+      <c r="U473" s="3"/>
+      <c r="V473" s="3"/>
+      <c r="W473" s="3"/>
+      <c r="X473" s="3"/>
+      <c r="Y473" s="3"/>
+      <c r="Z473" s="3"/>
+      <c r="AA473" s="3"/>
+      <c r="AB473" s="3"/>
+      <c r="AC473" s="3"/>
+      <c r="AD473" s="3"/>
+      <c r="AE473" s="3"/>
+      <c r="AF473" s="3"/>
+      <c r="AG473" s="3"/>
+      <c r="AH473" s="3"/>
+      <c r="AI473" s="3"/>
+      <c r="AJ473" s="3"/>
+      <c r="AK473" s="3"/>
+      <c r="AL473" s="3"/>
+      <c r="AM473" s="3"/>
+      <c r="AN473" s="3"/>
+      <c r="AO473" s="3"/>
+      <c r="AP473" s="3"/>
+      <c r="AQ473" s="3"/>
+      <c r="AR473" s="3"/>
+      <c r="AS473" s="3"/>
+      <c r="AT473" s="3"/>
+      <c r="AU473" s="3"/>
+      <c r="AV473" s="3"/>
+      <c r="AW473" s="3"/>
+      <c r="AX473" s="3"/>
+      <c r="AY473" s="3"/>
+      <c r="AZ473" s="3"/>
+      <c r="BA473" s="3"/>
+      <c r="BB473" s="3"/>
+      <c r="BC473" s="3"/>
+      <c r="BD473" s="3"/>
+      <c r="BE473" s="3"/>
+      <c r="BF473" s="3"/>
+      <c r="BG473" s="3"/>
+      <c r="BH473" s="3"/>
+      <c r="BI473" s="3"/>
+      <c r="BJ473" s="3"/>
+      <c r="BK473" s="3"/>
+      <c r="BL473" s="3"/>
+      <c r="BM473" s="3"/>
+      <c r="BN473" s="3"/>
+      <c r="BO473" s="3"/>
+      <c r="BP473" s="3"/>
+      <c r="BQ473" s="3"/>
+      <c r="BR473" s="3"/>
+      <c r="BS473" s="3"/>
+      <c r="BT473" s="3"/>
+    </row>
+    <row r="474" spans="3:72" x14ac:dyDescent="0.2">
+      <c r="C474" s="3"/>
+      <c r="D474" s="3"/>
+      <c r="E474" s="3"/>
+      <c r="F474" s="3"/>
+      <c r="G474" s="3"/>
+      <c r="H474" s="3"/>
+      <c r="I474" s="3"/>
+      <c r="J474" s="3"/>
+      <c r="K474" s="3"/>
+      <c r="L474" s="3"/>
+      <c r="M474" s="3"/>
+      <c r="N474" s="3"/>
+      <c r="O474" s="3"/>
+      <c r="P474" s="3"/>
+      <c r="Q474" s="3"/>
+      <c r="R474" s="3"/>
+      <c r="S474" s="3"/>
+      <c r="T474" s="3"/>
+      <c r="U474" s="3"/>
+      <c r="V474" s="3"/>
+      <c r="W474" s="3"/>
+      <c r="X474" s="3"/>
+      <c r="Y474" s="3"/>
+      <c r="Z474" s="3"/>
+      <c r="AA474" s="3"/>
+      <c r="AB474" s="3"/>
+      <c r="AC474" s="3"/>
+      <c r="AD474" s="3"/>
+      <c r="AE474" s="3"/>
+      <c r="AF474" s="3"/>
+      <c r="AG474" s="3"/>
+      <c r="AH474" s="3"/>
+      <c r="AI474" s="3"/>
+      <c r="AJ474" s="3"/>
+      <c r="AK474" s="3"/>
+      <c r="AL474" s="3"/>
+      <c r="AM474" s="3"/>
+      <c r="AN474" s="3"/>
+      <c r="AO474" s="3"/>
+      <c r="AP474" s="3"/>
+      <c r="AQ474" s="3"/>
+      <c r="AR474" s="3"/>
+      <c r="AS474" s="3"/>
+      <c r="AT474" s="3"/>
+      <c r="AU474" s="3"/>
+      <c r="AV474" s="3"/>
+      <c r="AW474" s="3"/>
+      <c r="AX474" s="3"/>
+      <c r="AY474" s="3"/>
+      <c r="AZ474" s="3"/>
+      <c r="BA474" s="3"/>
+      <c r="BB474" s="3"/>
+      <c r="BC474" s="3"/>
+      <c r="BD474" s="3"/>
+      <c r="BE474" s="3"/>
+      <c r="BF474" s="3"/>
+      <c r="BG474" s="3"/>
+      <c r="BH474" s="3"/>
+      <c r="BI474" s="3"/>
+      <c r="BJ474" s="3"/>
+      <c r="BK474" s="3"/>
+      <c r="BL474" s="3"/>
+      <c r="BM474" s="3"/>
+      <c r="BN474" s="3"/>
+      <c r="BO474" s="3"/>
+      <c r="BP474" s="3"/>
+      <c r="BQ474" s="3"/>
+      <c r="BR474" s="3"/>
+      <c r="BS474" s="3"/>
+      <c r="BT474" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FB40B7B3-16B7-4754-A40B-3FE2E3D38830}"/>
